--- a/teaching/traditional_assets/database/data/morocco/morocco_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/morocco/morocco_bank_money_center.xlsx
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.04735</v>
+        <v>0.0325</v>
       </c>
       <c r="E2">
-        <v>0.03155</v>
+        <v>-0.04935</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1273.4</v>
+        <v>808.5999999999999</v>
       </c>
       <c r="L2">
-        <v>0.2245855379188713</v>
+        <v>0.1495717800262666</v>
       </c>
       <c r="M2">
-        <v>41.6</v>
+        <v>244.9845</v>
       </c>
       <c r="N2">
-        <v>0.001789709172259508</v>
+        <v>0.01145306517440148</v>
       </c>
       <c r="O2">
-        <v>0.03266844667818439</v>
+        <v>0.3029736581746229</v>
       </c>
       <c r="P2">
-        <v>41.6</v>
+        <v>244.9845</v>
       </c>
       <c r="Q2">
-        <v>0.001789709172259508</v>
+        <v>0.01145306517440148</v>
       </c>
       <c r="R2">
-        <v>0.03266844667818439</v>
+        <v>0.3029736581746229</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,55 +639,55 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>5294.1</v>
+        <v>6202.900000000001</v>
       </c>
       <c r="V2">
-        <v>0.2277620030975736</v>
+        <v>0.2899865827033749</v>
       </c>
       <c r="W2">
-        <v>0.107493920609481</v>
+        <v>0.06245198965912041</v>
       </c>
       <c r="X2">
-        <v>0.07193937151347599</v>
+        <v>0.0726573574395516</v>
       </c>
       <c r="Y2">
-        <v>0.03555454909600503</v>
+        <v>-0.01020536778043118</v>
       </c>
       <c r="Z2">
-        <v>0.1969504976907815</v>
+        <v>0.1739412175788706</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.05513492102986468</v>
+        <v>0.0498636495449136</v>
       </c>
       <c r="AC2">
-        <v>-0.05513492102986468</v>
+        <v>-0.0498636495449136</v>
       </c>
       <c r="AD2">
-        <v>25042.9</v>
+        <v>23663.4</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>25042.9</v>
+        <v>23663.4</v>
       </c>
       <c r="AG2">
-        <v>19748.8</v>
+        <v>17460.5</v>
       </c>
       <c r="AH2">
-        <v>0.518627205308272</v>
+        <v>0.5252265629681914</v>
       </c>
       <c r="AI2">
-        <v>0.6371704157157287</v>
+        <v>0.6064381873025066</v>
       </c>
       <c r="AJ2">
-        <v>0.4593513332464971</v>
+        <v>0.4494244648758841</v>
       </c>
       <c r="AK2">
-        <v>0.5806899309598579</v>
+        <v>0.5320500709989213</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -704,7 +704,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Banque Marocaine pour le Commerce et l'Industrie (CBSE:BCI)</t>
+          <t>Crédit du Maroc S.A. (CBSE:CDM)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0162</v>
+        <v>0.058</v>
       </c>
       <c r="E3">
-        <v>0.0273</v>
+        <v>0.11</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -731,28 +731,28 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>59.1</v>
+        <v>23.9</v>
       </c>
       <c r="L3">
-        <v>0.2194578536947642</v>
+        <v>0.1293290043290043</v>
       </c>
       <c r="M3">
-        <v>41.6</v>
+        <v>21</v>
       </c>
       <c r="N3">
-        <v>0.04187638413529294</v>
+        <v>0.03745986443096682</v>
       </c>
       <c r="O3">
-        <v>0.7038917089678511</v>
+        <v>0.8786610878661089</v>
       </c>
       <c r="P3">
-        <v>41.6</v>
+        <v>21</v>
       </c>
       <c r="Q3">
-        <v>0.04187638413529294</v>
+        <v>0.03745986443096682</v>
       </c>
       <c r="R3">
-        <v>0.7038917089678511</v>
+        <v>0.8786610878661089</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -761,55 +761,55 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>168.2</v>
+        <v>155.6</v>
       </c>
       <c r="V3">
-        <v>0.1693174954701027</v>
+        <v>0.2775597574027827</v>
       </c>
       <c r="W3">
-        <v>0.07981093855503038</v>
+        <v>0.04317196531791907</v>
       </c>
       <c r="X3">
-        <v>0.07083965093196815</v>
+        <v>0.07018276659928611</v>
       </c>
       <c r="Y3">
-        <v>0.008971287623062235</v>
+        <v>-0.02701080128136704</v>
       </c>
       <c r="Z3">
-        <v>0.1983998349737726</v>
+        <v>0.1627906976744186</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.05253561892609437</v>
+        <v>0.04807136925437845</v>
       </c>
       <c r="AC3">
-        <v>-0.05253561892609437</v>
+        <v>-0.04807136925437845</v>
       </c>
       <c r="AD3">
-        <v>974.4</v>
+        <v>632.9</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>974.4</v>
+        <v>632.9</v>
       </c>
       <c r="AG3">
-        <v>806.2</v>
+        <v>477.3</v>
       </c>
       <c r="AH3">
-        <v>0.4951722736050412</v>
+        <v>0.5302890657729368</v>
       </c>
       <c r="AI3">
-        <v>0.5634975711311589</v>
+        <v>0.5316253674926501</v>
       </c>
       <c r="AJ3">
-        <v>0.4479884418759725</v>
+        <v>0.459870893149629</v>
       </c>
       <c r="AK3">
-        <v>0.5164638052530429</v>
+        <v>0.461203981060972</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -826,7 +826,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Crédit du Maroc S.A. (CBSE:CDM)</t>
+          <t>Banque Marocaine pour le Commerce et l'Industrie (CBSE:BCI)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -835,10 +835,10 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.0728</v>
+        <v>-0.00911</v>
       </c>
       <c r="E4">
-        <v>0.174</v>
+        <v>-0.108</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -853,10 +853,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>66.2</v>
+        <v>25.4</v>
       </c>
       <c r="L4">
-        <v>0.2846087704213242</v>
+        <v>0.1080851063829787</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -880,55 +880,55 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>117.9</v>
+        <v>111.2</v>
       </c>
       <c r="V4">
-        <v>0.1849121706398996</v>
+        <v>0.1169172537062349</v>
       </c>
       <c r="W4">
-        <v>0.1266985645933014</v>
+        <v>0.0337631264123355</v>
       </c>
       <c r="X4">
-        <v>0.07303909209498384</v>
+        <v>0.07513194827981708</v>
       </c>
       <c r="Y4">
-        <v>0.05365947249831761</v>
+        <v>-0.04136882186748157</v>
       </c>
       <c r="Z4">
-        <v>0.2193511882308563</v>
+        <v>0.1503865253673271</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.05266416422573948</v>
+        <v>0.04843241772791118</v>
       </c>
       <c r="AC4">
-        <v>-0.05266416422573948</v>
+        <v>-0.04843241772791118</v>
       </c>
       <c r="AD4">
-        <v>691.4</v>
+        <v>1273.1</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>691.4</v>
+        <v>1273.1</v>
       </c>
       <c r="AG4">
-        <v>573.5</v>
+        <v>1161.9</v>
       </c>
       <c r="AH4">
-        <v>0.5202407825432656</v>
+        <v>0.5723855768366154</v>
       </c>
       <c r="AI4">
-        <v>0.5506092219479175</v>
+        <v>0.6068160152526215</v>
       </c>
       <c r="AJ4">
-        <v>0.473536454462885</v>
+        <v>0.5498816848083293</v>
       </c>
       <c r="AK4">
-        <v>0.5040428897873088</v>
+        <v>0.5848097443124622</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -945,7 +945,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Banque Marocaine du Commerce Extérieur (CBSE:BCE)</t>
+          <t>Bank of Africa (CBSE:BOA)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -954,10 +954,10 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.05</v>
+        <v>0.00454</v>
       </c>
       <c r="E5">
-        <v>0.0179</v>
+        <v>-0.122</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -972,10 +972,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>195.6</v>
+        <v>114.6</v>
       </c>
       <c r="L5">
-        <v>0.1577928363988383</v>
+        <v>0.1001223134719553</v>
       </c>
       <c r="M5">
         <v>-0</v>
@@ -999,55 +999,55 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>1315.2</v>
+        <v>1379.2</v>
       </c>
       <c r="V5">
-        <v>0.3276287272999028</v>
+        <v>0.3942486350513106</v>
       </c>
       <c r="W5">
-        <v>0.1072780123951078</v>
+        <v>0.05458182510954467</v>
       </c>
       <c r="X5">
-        <v>0.08927510862106833</v>
+        <v>0.1051358932374763</v>
       </c>
       <c r="Y5">
-        <v>0.01800290377403944</v>
+        <v>-0.05055406812793164</v>
       </c>
       <c r="Z5">
-        <v>0.1515792562882892</v>
+        <v>0.141336560308209</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.05332405610535203</v>
+        <v>0.04972356122208303</v>
       </c>
       <c r="AC5">
-        <v>-0.05332405610535203</v>
+        <v>-0.04972356122208303</v>
       </c>
       <c r="AD5">
-        <v>7420.2</v>
+        <v>9127.6</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>7420.2</v>
+        <v>9127.6</v>
       </c>
       <c r="AG5">
-        <v>6105</v>
+        <v>7748.400000000001</v>
       </c>
       <c r="AH5">
-        <v>0.6489308671126853</v>
+        <v>0.72292668245432</v>
       </c>
       <c r="AI5">
-        <v>0.7364962779156328</v>
+        <v>0.750692908075566</v>
       </c>
       <c r="AJ5">
-        <v>0.6033025999822123</v>
+        <v>0.6889487583024354</v>
       </c>
       <c r="AK5">
-        <v>0.6969337199479441</v>
+        <v>0.7187955137898087</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -1064,7 +1064,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Attijariwafa Bank S.A. (CBSE:ATW)</t>
+          <t>Attijariwafa bank S.A (CBSE:ATW)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1073,10 +1073,10 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.058</v>
+        <v>0.0267</v>
       </c>
       <c r="E6">
-        <v>0.06619999999999999</v>
+        <v>-0.0532</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1091,10 +1091,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>604.7</v>
+        <v>366.9</v>
       </c>
       <c r="L6">
-        <v>0.2721422142214222</v>
+        <v>0.1766490129995185</v>
       </c>
       <c r="M6">
         <v>-0</v>
@@ -1118,55 +1118,55 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>2274.3</v>
+        <v>2709.3</v>
       </c>
       <c r="V6">
-        <v>0.2215263234792773</v>
+        <v>0.2899849083261086</v>
       </c>
       <c r="W6">
-        <v>0.1397697855029586</v>
+        <v>0.07678623749529111</v>
       </c>
       <c r="X6">
-        <v>0.06731138939362426</v>
+        <v>0.05416648736240148</v>
       </c>
       <c r="Y6">
-        <v>0.07245839610933434</v>
+        <v>0.02261975013288962</v>
       </c>
       <c r="Z6">
-        <v>0.2314197633727712</v>
+        <v>0.2108115789046323</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.05694578595437733</v>
+        <v>0.05000373786774416</v>
       </c>
       <c r="AC6">
-        <v>-0.05694578595437733</v>
+        <v>-0.05000373786774416</v>
       </c>
       <c r="AD6">
-        <v>8365.5</v>
+        <v>4211</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>8365.5</v>
+        <v>4211</v>
       </c>
       <c r="AG6">
-        <v>6091.2</v>
+        <v>1501.7</v>
       </c>
       <c r="AH6">
-        <v>0.4489856161442679</v>
+        <v>0.3106854853584577</v>
       </c>
       <c r="AI6">
-        <v>0.6078209124397846</v>
+        <v>0.4119666982987174</v>
       </c>
       <c r="AJ6">
-        <v>0.372375089407435</v>
+        <v>0.1384744481124246</v>
       </c>
       <c r="AK6">
-        <v>0.5301859202005431</v>
+        <v>0.1998961716628507</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Banque Centrale Populaire (CBSE:BCP)</t>
+          <t>Crédit Immobilier et Hôtelier, Société Anonyme (CBSE:CIH)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1192,10 +1192,10 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.0447</v>
+        <v>0.07339999999999999</v>
       </c>
       <c r="E7">
-        <v>0.0358</v>
+        <v>-0.0455</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1210,82 +1210,85 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>312.1</v>
+        <v>33.1</v>
       </c>
       <c r="L7">
-        <v>0.2100127851423189</v>
+        <v>0.1422432316287065</v>
       </c>
       <c r="M7">
-        <v>-0</v>
+        <v>40.752</v>
       </c>
       <c r="N7">
-        <v>-0</v>
+        <v>0.05026147015293538</v>
       </c>
       <c r="O7">
-        <v>-0</v>
+        <v>1.231178247734139</v>
       </c>
       <c r="P7">
-        <v>-0</v>
+        <v>40.752</v>
       </c>
       <c r="Q7">
-        <v>-0</v>
+        <v>0.05026147015293538</v>
       </c>
       <c r="R7">
-        <v>-0</v>
+        <v>1.231178247734139</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
       <c r="U7">
-        <v>1267.5</v>
+        <v>80.7</v>
       </c>
       <c r="V7">
-        <v>0.1965238154304143</v>
+        <v>0.09953132708436113</v>
       </c>
       <c r="W7">
-        <v>0.1077098288238542</v>
+        <v>0.07147484344633988</v>
       </c>
       <c r="X7">
-        <v>0.06845051137930705</v>
+        <v>0.1207814689668619</v>
       </c>
       <c r="Y7">
-        <v>0.03925931744454719</v>
+        <v>-0.04930662552052202</v>
       </c>
       <c r="Z7">
-        <v>0.2319530506173032</v>
+        <v>0.09566683111330375</v>
       </c>
       <c r="AA7">
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.05719047324614322</v>
+        <v>0.05009214303598859</v>
       </c>
       <c r="AC7">
-        <v>-0.05719047324614322</v>
+        <v>-0.05009214303598859</v>
       </c>
       <c r="AD7">
-        <v>5601.1</v>
+        <v>2652.7</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>5601.1</v>
+        <v>2652.7</v>
       </c>
       <c r="AG7">
-        <v>4333.6</v>
+        <v>2572</v>
       </c>
       <c r="AH7">
-        <v>0.4647945762486826</v>
+        <v>0.7659015446802367</v>
       </c>
       <c r="AI7">
-        <v>0.5642686600243798</v>
+        <v>0.8186587661636269</v>
       </c>
       <c r="AJ7">
-        <v>0.4018844127902663</v>
+        <v>0.7603168972448858</v>
       </c>
       <c r="AK7">
-        <v>0.5004850556659122</v>
+        <v>0.8140270920369668</v>
       </c>
       <c r="AL7">
         <v>0</v>
@@ -1302,7 +1305,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Crédit Immobilier et Hôtelier (CBSE:CIH)</t>
+          <t>Banque Centrale Populaire (CBSE:BCP)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1311,10 +1314,10 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.0392</v>
+        <v>0.0383</v>
       </c>
       <c r="E8">
-        <v>-0.0742</v>
+        <v>0.0385</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1329,82 +1332,85 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>35.7</v>
+        <v>244.7</v>
       </c>
       <c r="L8">
-        <v>0.161978221415608</v>
+        <v>0.1597258485639687</v>
       </c>
       <c r="M8">
-        <v>-0</v>
+        <v>183.2325</v>
       </c>
       <c r="N8">
-        <v>-0</v>
+        <v>0.02942737609610381</v>
       </c>
       <c r="O8">
-        <v>-0</v>
+        <v>0.7488046587658357</v>
       </c>
       <c r="P8">
-        <v>-0</v>
+        <v>183.2325</v>
       </c>
       <c r="Q8">
-        <v>-0</v>
+        <v>0.02942737609610381</v>
       </c>
       <c r="R8">
-        <v>-0</v>
+        <v>0.7488046587658357</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
       <c r="U8">
-        <v>151</v>
+        <v>1766.9</v>
       </c>
       <c r="V8">
-        <v>0.1710854294130977</v>
+        <v>0.2837664214820287</v>
       </c>
       <c r="W8">
-        <v>0.07260524710189141</v>
+        <v>0.07032215420869616</v>
       </c>
       <c r="X8">
-        <v>0.09791519043241537</v>
+        <v>0.06539086715093009</v>
       </c>
       <c r="Y8">
-        <v>-0.02530994333052396</v>
+        <v>0.004931287057766062</v>
       </c>
       <c r="Z8">
-        <v>0.1008787989747345</v>
+        <v>0.1915239404925616</v>
       </c>
       <c r="AA8">
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.05823353336088985</v>
+        <v>0.05355211988957206</v>
       </c>
       <c r="AC8">
-        <v>-0.05823353336088985</v>
+        <v>-0.05355211988957206</v>
       </c>
       <c r="AD8">
-        <v>1990.3</v>
+        <v>5766.1</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>1990.3</v>
+        <v>5766.1</v>
       </c>
       <c r="AG8">
-        <v>1839.3</v>
+        <v>3999.2</v>
       </c>
       <c r="AH8">
-        <v>0.6927842946151972</v>
+        <v>0.480800820499137</v>
       </c>
       <c r="AI8">
-        <v>0.7792873923257635</v>
+        <v>0.5702855334342145</v>
       </c>
       <c r="AJ8">
-        <v>0.6757412101840625</v>
+        <v>0.3910892057345147</v>
       </c>
       <c r="AK8">
-        <v>0.76541822721598</v>
+        <v>0.4792905081495686</v>
       </c>
       <c r="AL8">
         <v>0</v>
